--- a/resources/experiment 1/predictions/single/LinearRegression/LY.xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/LY.xlsx
@@ -463,7 +463,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31.51131844703907</v>
+        <v>31.51131844703906</v>
       </c>
       <c r="B3" t="n">
         <v>30.78369939005497</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30.986442504268</v>
+        <v>30.98644250426799</v>
       </c>
       <c r="B4" t="n">
         <v>29.66309437827044</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31.93761197774848</v>
+        <v>31.93761197774847</v>
       </c>
       <c r="B7" t="n">
         <v>28.08723665228725</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26.87008214547613</v>
+        <v>26.87008214547612</v>
       </c>
       <c r="B8" t="n">
         <v>21.25254379656193</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43.54323543793453</v>
+        <v>43.54323543793454</v>
       </c>
       <c r="B12" t="n">
         <v>37.60352621561158</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>43.63633622938599</v>
+        <v>43.636336229386</v>
       </c>
       <c r="B17" t="n">
         <v>37.72275053123617</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>31.03299289999373</v>
+        <v>31.03299289999372</v>
       </c>
       <c r="B18" t="n">
         <v>29.72270653608274</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>41.97408923023153</v>
+        <v>41.97408923023154</v>
       </c>
       <c r="B21" t="n">
         <v>37.93955461418565</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>33.1270150504678</v>
+        <v>33.12701505046779</v>
       </c>
       <c r="B25" t="n">
-        <v>30.5072831492932</v>
+        <v>30.50728314929319</v>
       </c>
       <c r="C25" t="n">
         <v>35.55299490209539</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>43.96952896864395</v>
+        <v>43.96952896864396</v>
       </c>
       <c r="B27" t="n">
         <v>34.90706347784386</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>48.15571492102441</v>
+        <v>48.15571492102442</v>
       </c>
       <c r="B29" t="n">
         <v>43.40703229627081</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>40.85451175110081</v>
+        <v>40.85451175110082</v>
       </c>
       <c r="B30" t="n">
         <v>35.60892635389815</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45.75363357772292</v>
+        <v>45.75363357772293</v>
       </c>
       <c r="B34" t="n">
         <v>38.53713322335278</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>31.91433677988562</v>
+        <v>31.91433677988561</v>
       </c>
       <c r="B36" t="n">
         <v>28.0574305733811</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>44.77918890637957</v>
+        <v>44.77918890637958</v>
       </c>
       <c r="B37" t="n">
         <v>40.08318487042982</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>46.32505991621971</v>
+        <v>46.32505991621972</v>
       </c>
       <c r="B39" t="n">
         <v>39.7173503929496</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>29.22561309305189</v>
+        <v>29.22561309305188</v>
       </c>
       <c r="B41" t="n">
         <v>26.06283071166767</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>39.61855828265577</v>
+        <v>39.61855828265578</v>
       </c>
       <c r="B42" t="n">
         <v>33.1292676990799</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45.20548243708899</v>
+        <v>45.205482437089</v>
       </c>
       <c r="B45" t="n">
         <v>37.3867221326621</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>30.81803449861776</v>
+        <v>30.81803449861775</v>
       </c>
       <c r="B46" t="n">
         <v>25.75660839199975</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>44.73263851065385</v>
+        <v>44.73263851065386</v>
       </c>
       <c r="B50" t="n">
         <v>40.02357271261752</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>31.55786884276479</v>
+        <v>31.55786884276478</v>
       </c>
       <c r="B51" t="n">
-        <v>30.84331154786727</v>
+        <v>30.84331154786726</v>
       </c>
       <c r="C51" t="n">
         <v>32.6363507220379</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27.96638442674399</v>
+        <v>27.96638442674398</v>
       </c>
       <c r="B52" t="n">
         <v>23.55336597794328</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>46.3948855098083</v>
+        <v>46.39488550980831</v>
       </c>
       <c r="B53" t="n">
         <v>39.80676862966805</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30.13023217080665</v>
+        <v>30.13023217080664</v>
       </c>
       <c r="B57" t="n">
         <v>24.42736082787219</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>44.80246410424244</v>
+        <v>44.80246410424245</v>
       </c>
       <c r="B58" t="n">
         <v>40.11299094933597</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>39.02385674629611</v>
+        <v>39.02385674629612</v>
       </c>
       <c r="B61" t="n">
         <v>31.91924445057693</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>36.83673380437059</v>
+        <v>36.8367338043706</v>
       </c>
       <c r="B62" t="n">
         <v>31.01544352174188</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>44.54095530714075</v>
+        <v>44.54095530714076</v>
       </c>
       <c r="B63" t="n">
         <v>36.08728064744069</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>45.35061524487637</v>
+        <v>45.35061524487638</v>
       </c>
       <c r="B64" t="n">
-        <v>41.26340204002665</v>
+        <v>41.26340204002664</v>
       </c>
       <c r="C64" t="n">
         <v>49.38137178363437</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>40.25981021474115</v>
+        <v>40.25981021474116</v>
       </c>
       <c r="B67" t="n">
         <v>34.39890310539518</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>29.77376423368582</v>
+        <v>29.77376423368581</v>
       </c>
       <c r="B71" t="n">
         <v>27.21324180235835</v>
